--- a/data/russian_pii_patterns.xlsx
+++ b/data/russian_pii_patterns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shai\Пресидио\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dakesi\Desktop\shai\content-moderation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C782B33-A96E-47FD-AB39-6CCA900345CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E9604-339A-4303-9013-82404B52E75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,24 +70,15 @@
     <t>phone_ru</t>
   </si>
   <si>
-    <t>\b\d{4}\s?\d{6}\b</t>
-  </si>
-  <si>
     <t>\b\d{12}\b</t>
   </si>
   <si>
-    <t>\b\d{3}-\d{3}-\d{3}\s?\d{2}\b</t>
-  </si>
-  <si>
     <t>\b[0-9A-Z]{2}\d{14}\b</t>
   </si>
   <si>
     <t>\b[А-Я]{2}\s?\d{6}\b</t>
   </si>
   <si>
-    <t>\+7\d{10}</t>
-  </si>
-  <si>
     <t>needs_validation</t>
   </si>
   <si>
@@ -95,6 +86,15 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>\b\d{4}[-\s]?\d{6}\b</t>
+  </si>
+  <si>
+    <t>\b\d{3}[-\s]?\d{3}[-\s]?\d{3}[-\s]?\d{2}\b</t>
+  </si>
+  <si>
+    <t>(?:\+7|8)[\s-]?\(?\d{3}\)?[\s-]?\d{3}[-\s]?\d{2}[-\s]?\d{2}\b</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,14 +465,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -501,13 +501,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0.8</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -518,13 +518,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0.8</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -535,13 +535,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>0.8</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -552,13 +552,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>0.7</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,13 +569,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0.7</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0.8</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
